--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value878.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value878.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.230466421644632</v>
+        <v>2.292562961578369</v>
       </c>
       <c r="B1">
-        <v>2.528267399985427</v>
+        <v>2.831019401550293</v>
       </c>
       <c r="C1">
-        <v>3.51766585923006</v>
+        <v>2.27980899810791</v>
       </c>
       <c r="D1">
-        <v>3.136283497751773</v>
+        <v>2.160499095916748</v>
       </c>
       <c r="E1">
-        <v>1.118564590776768</v>
+        <v>1.876410126686096</v>
       </c>
     </row>
   </sheetData>
